--- a/2.Testing_types/task/defects/Sergey_Semenyuta.xlsx
+++ b/2.Testing_types/task/defects/Sergey_Semenyuta.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>При открытии нов файла выдает The…</t>
   </si>
@@ -94,14 +94,92 @@
   </si>
   <si>
     <t>При выборе в меню tools подменю properties появляется меню options</t>
+  </si>
+  <si>
+    <t>Probably not a defect, what does your description mean exactly? By selecting "New" the program sets all controls to default values and warns about loosing of data</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#16, partly</t>
+  </si>
+  <si>
+    <t>#10, fully unclear description</t>
+  </si>
+  <si>
+    <t>unclear description, "Delete Line" works correctly in most cases, counted as #6 partly</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>counted as #39</t>
+  </si>
+  <si>
+    <t>probably not a defect, it's may be correct program logic for one week selection range</t>
+  </si>
+  <si>
+    <t>unclear description, counted as #20</t>
+  </si>
+  <si>
+    <t>#17</t>
+  </si>
+  <si>
+    <t>in fact it works, but this hot-key is duplicated, counted in the next reported problem</t>
+  </si>
+  <si>
+    <t>I'm not sure it's a bug, because it shows correct today's date after application restart</t>
+  </si>
+  <si>
+    <t>'Help' menu handles standard ‘Help -&gt;About’ item, but probably this app is lacks of help content..</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>Fully inclear description, counted as #25 partly</t>
+  </si>
+  <si>
+    <t>In calendar? Are you sure? ;)</t>
+  </si>
+  <si>
+    <t>It works fine for me, I've tried just now and everything is ok..</t>
+  </si>
+  <si>
+    <t>#27</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -130,11 +208,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,104 +519,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C26"/>
+  <dimension ref="A3:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="2" max="2" width="70.7109375" customWidth="1"/>
+    <col min="4" max="4" width="78.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -546,32 +657,44 @@
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -581,16 +704,22 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -600,48 +729,66 @@
       <c r="C20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -651,9 +798,13 @@
       <c r="C26" t="s">
         <v>9</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
